--- a/src/main/resources/FinalResults.xlsx
+++ b/src/main/resources/FinalResults.xlsx
@@ -130,16 +130,16 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>117961.0</v>
+        <v>119374.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1493.0</v>
+        <v>1136.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1923.0</v>
+        <v>1494.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3143.0</v>
+        <v>2516.0</v>
       </c>
     </row>
     <row r="4">
@@ -149,16 +149,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1487.0</v>
+        <v>1251.0</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>8407.0</v>
+        <v>8597.0</v>
       </c>
       <c r="D4" t="n">
-        <v>87.0</v>
+        <v>108.0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="5">
@@ -168,16 +168,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2140.0</v>
+        <v>1957.0</v>
       </c>
       <c r="C5" t="n">
-        <v>228.0</v>
+        <v>257.0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>7552.0</v>
+        <v>7645.0</v>
       </c>
       <c r="E5" t="n">
-        <v>181.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="6">
@@ -187,16 +187,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2723.0</v>
+        <v>2373.0</v>
       </c>
       <c r="C6" t="n">
-        <v>161.0</v>
+        <v>179.0</v>
       </c>
       <c r="D6" t="n">
-        <v>121.0</v>
+        <v>139.0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>9887.0</v>
+        <v>10201.0</v>
       </c>
     </row>
     <row r="7">
@@ -227,13 +227,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8407.0</v>
+        <v>8597.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1882.0</v>
+        <v>1572.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1720.0</v>
+        <v>1530.0</v>
       </c>
     </row>
     <row r="11">
@@ -255,13 +255,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81.71</v>
+        <v>84.54</v>
       </c>
       <c r="B12" t="n">
-        <v>83.02</v>
+        <v>84.89</v>
       </c>
       <c r="C12" t="n">
-        <v>82.36</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="13">
@@ -292,13 +292,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7552.0</v>
+        <v>7645.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2131.0</v>
+        <v>1741.0</v>
       </c>
       <c r="C16" t="n">
-        <v>2549.0</v>
+        <v>2456.0</v>
       </c>
     </row>
     <row r="17">
@@ -320,13 +320,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>77.99</v>
+        <v>81.45</v>
       </c>
       <c r="B18" t="n">
-        <v>74.76</v>
+        <v>75.69</v>
       </c>
       <c r="C18" t="n">
-        <v>76.34</v>
+        <v>78.46</v>
       </c>
     </row>
     <row r="19">
@@ -357,13 +357,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9887.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B22" t="n">
-        <v>3470.0</v>
+        <v>2929.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3005.0</v>
+        <v>2691.0</v>
       </c>
     </row>
     <row r="23">
@@ -385,13 +385,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>74.02</v>
+        <v>77.69</v>
       </c>
       <c r="B24" t="n">
-        <v>76.69</v>
+        <v>79.13</v>
       </c>
       <c r="C24" t="n">
-        <v>75.33</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="25">
@@ -422,13 +422,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>117961.0</v>
+        <v>119374.0</v>
       </c>
       <c r="B28" t="n">
-        <v>6350.0</v>
+        <v>5581.0</v>
       </c>
       <c r="C28" t="n">
-        <v>6559.0</v>
+        <v>5146.0</v>
       </c>
     </row>
     <row r="29">
@@ -450,13 +450,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>94.89</v>
+        <v>95.53</v>
       </c>
       <c r="B30" t="n">
-        <v>94.73</v>
+        <v>95.87</v>
       </c>
       <c r="C30" t="n">
-        <v>94.81</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="31">
